--- a/Attendance/12-05-2020.xlsx
+++ b/Attendance/12-05-2020.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,40 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ABDULLAH</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>17BCS002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>18:42:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SADIQ</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>17BCS013</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>18:42:48</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
